--- a/Dissertation Docmentation/Questions Excel Sheet.xlsx
+++ b/Dissertation Docmentation/Questions Excel Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Unity Engine Projects\DissertationProject\DissertationProjectUnity\Dissertation Docmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry.findlay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A65198-99D5-49DA-89B6-8C89DD09852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FA71C9-265A-C148-ABF4-4F5906C3D0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9A8C2086-8AA9-4BC5-B0F6-974B4933E78F}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{9A8C2086-8AA9-4BC5-B0F6-974B4933E78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -3132,13 +3132,67 @@
   </si>
   <si>
     <t>Overall, everyone would like to see more generation.</t>
+  </si>
+  <si>
+    <t>Were any levels generated that made it impossible to complete the level?</t>
+  </si>
+  <si>
+    <t>If yes, please explain why this made the level difficult or impossible to complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character movement and mechanics were reponsive and useable? </t>
+  </si>
+  <si>
+    <t>I feel that the general preformance was stable and flowed well</t>
+  </si>
+  <si>
+    <t>My experience contained bugs (technical issues) that ruined the enviroment and its flow</t>
+  </si>
+  <si>
+    <t>Were there any out-of-place objects (floating, clipping, etc)?</t>
+  </si>
+  <si>
+    <t>What general improvements would you make?</t>
+  </si>
+  <si>
+    <t>Average: 2.71</t>
+  </si>
+  <si>
+    <t>2x (4), 3x (3), 2x (1)</t>
+  </si>
+  <si>
+    <t>3x(Yes), 4x (No)</t>
+  </si>
+  <si>
+    <t>43 % Yes</t>
+  </si>
+  <si>
+    <t>3 Responses</t>
+  </si>
+  <si>
+    <t>Average: 4.71</t>
+  </si>
+  <si>
+    <t>6x (5), 3x (1)</t>
+  </si>
+  <si>
+    <t>Average: 3.43</t>
+  </si>
+  <si>
+    <t>2x (5), 2x (4), 3x (2)</t>
+  </si>
+  <si>
+    <t>2x (5), 4x (3), 1x (2)</t>
+  </si>
+  <si>
+    <t>7 Responses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3154,6 +3208,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3185,7 +3246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3195,6 +3256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3529,19 +3591,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B601B6-7532-4524-BB11-DCE117EACA74}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="126.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3563,7 +3625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3574,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3585,7 +3647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3607,7 +3669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3618,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3629,7 +3691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3640,7 +3702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3651,7 +3713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3662,7 +3724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -3673,7 +3735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3681,6 +3743,94 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3693,20 +3843,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EB1446-9878-423A-A141-86D0736E242E}">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +3867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -3728,7 +3878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -3739,7 +3889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -3750,7 +3900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -3761,7 +3911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -3772,7 +3922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -3783,7 +3933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -3794,7 +3944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -3805,7 +3955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -3816,7 +3966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -3827,7 +3977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>48</v>
       </c>
@@ -3838,7 +3988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -3847,6 +3997,94 @@
       </c>
       <c r="D13" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
